--- a/TODO/Budget.xlsx
+++ b/TODO/Budget.xlsx
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -229,24 +229,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -255,6 +243,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,22 +591,22 @@
   <dimension ref="B2:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F11" sqref="F11:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="23.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="15.140625" style="1" customWidth="1"/>
     <col min="9" max="10" width="17.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -614,221 +617,221 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="11"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>985500</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>12000</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="10">
         <f>C4*12</f>
         <v>144000</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="10">
         <v>10000</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="5">
         <f>D11</f>
         <v>847120</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="10">
         <v>1400</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="10">
         <f>C5*12</f>
         <v>16800</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="10">
         <f>SUM(H12:H14)</f>
         <v>50000</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <f>L3-L4</f>
         <v>138380</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="10">
         <v>360</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="10">
         <f>C6*12</f>
         <v>4320</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="10">
         <f>SUM(H15:H19)</f>
         <v>8750</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <f>G5+G6+G7</f>
         <v>78750</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="10">
         <v>2000</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="10">
         <f>C7*12</f>
         <v>24000</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="10">
         <v>20000</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <f>L5-L6</f>
         <v>138380</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="10">
         <v>5000</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="10">
         <f>C8*12</f>
         <v>60000</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="10">
         <v>5000</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="6">
         <f>L7*0.39</f>
         <v>53968.200000000004</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="10">
         <f>D9/12</f>
         <v>49583.333333333336</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="10">
         <v>595000</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="11">
         <f>SUM(G4:G8)</f>
         <v>93750</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <f>L7-L8</f>
         <v>84411.799999999988</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="10">
         <v>250</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="10">
         <f>C10*12</f>
         <v>3000</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="11">
         <f>SUM(C4:C10)</f>
         <v>70593.333333333343</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="11">
         <f>SUM(D4:D10)</f>
         <v>847120</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -839,146 +842,146 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="10">
         <f t="shared" ref="H12:H19" si="0">I12*J12</f>
         <v>22000</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="10">
         <v>2000</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="10">
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="10">
         <v>8000</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="10">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="10">
         <v>4000</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="10">
         <f t="shared" si="0"/>
         <v>4500</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="10">
         <v>500</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="10">
         <f t="shared" si="0"/>
         <v>1350</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="10">
         <v>150</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="6:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="10">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="10">
         <v>100</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="6:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="10">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="10">
         <v>100</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="6:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="10">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="10">
         <v>1000</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="10">
         <v>1</v>
       </c>
     </row>
